--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col9a3-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col9a3-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7372909999999999</v>
+        <v>0.7759966666666666</v>
       </c>
       <c r="H2">
-        <v>2.211873</v>
+        <v>2.32799</v>
       </c>
       <c r="I2">
-        <v>0.1460480283935782</v>
+        <v>0.205980867763608</v>
       </c>
       <c r="J2">
-        <v>0.1460480283935782</v>
+        <v>0.2059808677636079</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.003643333333333333</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N2">
-        <v>0.01093</v>
+        <v>0.027103</v>
       </c>
       <c r="O2">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P2">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q2">
-        <v>0.002686196876666666</v>
+        <v>0.007010612552222221</v>
       </c>
       <c r="R2">
-        <v>0.02417577189</v>
+        <v>0.06309551296999999</v>
       </c>
       <c r="S2">
-        <v>0.0003505682029810195</v>
+        <v>0.004176004119376765</v>
       </c>
       <c r="T2">
-        <v>0.0003505682029810195</v>
+        <v>0.004176004119376764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7372909999999999</v>
+        <v>0.7759966666666666</v>
       </c>
       <c r="H3">
-        <v>2.211873</v>
+        <v>2.32799</v>
       </c>
       <c r="I3">
-        <v>0.1460480283935782</v>
+        <v>0.205980867763608</v>
       </c>
       <c r="J3">
-        <v>0.1460480283935782</v>
+        <v>0.2059808677636079</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2626486666666666</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N3">
-        <v>0.7879459999999999</v>
+        <v>0.552325</v>
       </c>
       <c r="O3">
-        <v>0.1730426339947982</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P3">
-        <v>0.1730426339947983</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q3">
-        <v>0.1936484980953333</v>
+        <v>0.1428674529722222</v>
       </c>
       <c r="R3">
-        <v>1.742836482858</v>
+        <v>1.28580707675</v>
       </c>
       <c r="S3">
-        <v>0.02527253552297185</v>
+        <v>0.08510170369460103</v>
       </c>
       <c r="T3">
-        <v>0.02527253552297185</v>
+        <v>0.08510170369460102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7372909999999999</v>
+        <v>0.7759966666666666</v>
       </c>
       <c r="H4">
-        <v>2.211873</v>
+        <v>2.32799</v>
       </c>
       <c r="I4">
-        <v>0.1460480283935782</v>
+        <v>0.205980867763608</v>
       </c>
       <c r="J4">
-        <v>0.1460480283935782</v>
+        <v>0.2059808677636079</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5169776666666667</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N4">
-        <v>1.550933</v>
+        <v>0.271372</v>
       </c>
       <c r="O4">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P4">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q4">
-        <v>0.3811629808343333</v>
+        <v>0.07019458914222221</v>
       </c>
       <c r="R4">
-        <v>3.430466827509</v>
+        <v>0.63175130228</v>
       </c>
       <c r="S4">
-        <v>0.04974453748892604</v>
+        <v>0.0418127362241638</v>
       </c>
       <c r="T4">
-        <v>0.04974453748892602</v>
+        <v>0.04181273622416379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7372909999999999</v>
+        <v>0.7759966666666666</v>
       </c>
       <c r="H5">
-        <v>2.211873</v>
+        <v>2.32799</v>
       </c>
       <c r="I5">
-        <v>0.1460480283935782</v>
+        <v>0.205980867763608</v>
       </c>
       <c r="J5">
-        <v>0.1460480283935782</v>
+        <v>0.2059808677636079</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03064833333333333</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N5">
-        <v>0.091945</v>
+        <v>0.486052</v>
       </c>
       <c r="O5">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P5">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q5">
-        <v>0.02259674033166666</v>
+        <v>0.1257249106088889</v>
       </c>
       <c r="R5">
-        <v>0.203370662985</v>
+        <v>1.13152419548</v>
       </c>
       <c r="S5">
-        <v>0.002949038739532465</v>
+        <v>0.07489042372546638</v>
       </c>
       <c r="T5">
-        <v>0.002949038739532465</v>
+        <v>0.07489042372546638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7372909999999999</v>
+        <v>0.7769020000000001</v>
       </c>
       <c r="H6">
-        <v>2.211873</v>
+        <v>2.330706</v>
       </c>
       <c r="I6">
-        <v>0.1460480283935782</v>
+        <v>0.2062211798082671</v>
       </c>
       <c r="J6">
-        <v>0.1460480283935782</v>
+        <v>0.2062211798082671</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7039083333333332</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N6">
-        <v>2.111725</v>
+        <v>0.027103</v>
       </c>
       <c r="O6">
-        <v>0.4637607859836402</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P6">
-        <v>0.4637607859836402</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q6">
-        <v>0.5189852789916666</v>
+        <v>0.007018791635333334</v>
       </c>
       <c r="R6">
-        <v>4.670867510925</v>
+        <v>0.063169124718</v>
       </c>
       <c r="S6">
-        <v>0.06773134843916682</v>
+        <v>0.004180876145110651</v>
       </c>
       <c r="T6">
-        <v>0.06773134843916681</v>
+        <v>0.00418087614511065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>2.330706</v>
       </c>
       <c r="I7">
-        <v>0.1538944668455572</v>
+        <v>0.2062211798082671</v>
       </c>
       <c r="J7">
-        <v>0.1538944668455572</v>
+        <v>0.2062211798082671</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.003643333333333333</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N7">
-        <v>0.01093</v>
+        <v>0.552325</v>
       </c>
       <c r="O7">
-        <v>0.002400362448141301</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P7">
-        <v>0.002400362448141301</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q7">
-        <v>0.002830512953333334</v>
+        <v>0.1430341323833333</v>
       </c>
       <c r="R7">
-        <v>0.02547461658</v>
+        <v>1.28730719145</v>
       </c>
       <c r="S7">
-        <v>0.0003694024991928019</v>
+        <v>0.08520098944206325</v>
       </c>
       <c r="T7">
-        <v>0.0003694024991928018</v>
+        <v>0.08520098944206324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>2.330706</v>
       </c>
       <c r="I8">
-        <v>0.1538944668455572</v>
+        <v>0.2062211798082671</v>
       </c>
       <c r="J8">
-        <v>0.1538944668455572</v>
+        <v>0.2062211798082671</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2626486666666666</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N8">
-        <v>0.7879459999999999</v>
+        <v>0.271372</v>
       </c>
       <c r="O8">
-        <v>0.1730426339947982</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P8">
-        <v>0.1730426339947983</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q8">
-        <v>0.2040522744306667</v>
+        <v>0.07027648318133334</v>
       </c>
       <c r="R8">
-        <v>1.836470469876</v>
+        <v>0.6324883486320001</v>
       </c>
       <c r="S8">
-        <v>0.02663030390018037</v>
+        <v>0.04186151795930221</v>
       </c>
       <c r="T8">
-        <v>0.02663030390018037</v>
+        <v>0.0418615179593022</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>2.330706</v>
       </c>
       <c r="I9">
-        <v>0.1538944668455572</v>
+        <v>0.2062211798082671</v>
       </c>
       <c r="J9">
-        <v>0.1538944668455572</v>
+        <v>0.2062211798082671</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.5169776666666667</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N9">
-        <v>1.550933</v>
+        <v>0.486052</v>
       </c>
       <c r="O9">
-        <v>0.3406039645730221</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P9">
-        <v>0.3406039645730221</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q9">
-        <v>0.4016409831886667</v>
+        <v>0.1258715903013333</v>
       </c>
       <c r="R9">
-        <v>3.614768848698</v>
+        <v>1.132844312712</v>
       </c>
       <c r="S9">
-        <v>0.05241706553344828</v>
+        <v>0.07497779626179102</v>
       </c>
       <c r="T9">
-        <v>0.05241706553344828</v>
+        <v>0.07497779626179102</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7769020000000001</v>
+        <v>0.8581556666666668</v>
       </c>
       <c r="H10">
-        <v>2.330706</v>
+        <v>2.574467</v>
       </c>
       <c r="I10">
-        <v>0.1538944668455572</v>
+        <v>0.2277891858164222</v>
       </c>
       <c r="J10">
-        <v>0.1538944668455572</v>
+        <v>0.2277891858164221</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,33 +1057,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03064833333333333</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N10">
-        <v>0.091945</v>
+        <v>0.027103</v>
       </c>
       <c r="O10">
-        <v>0.02019225300039816</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P10">
-        <v>0.02019225300039816</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q10">
-        <v>0.02381075146333334</v>
+        <v>0.007752864344555557</v>
       </c>
       <c r="R10">
-        <v>0.21429676317</v>
+        <v>0.06977577910100001</v>
       </c>
       <c r="S10">
-        <v>0.003107476009906877</v>
+        <v>0.004618140454726843</v>
       </c>
       <c r="T10">
-        <v>0.003107476009906877</v>
+        <v>0.004618140454726843</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7769020000000001</v>
+        <v>0.8581556666666668</v>
       </c>
       <c r="H11">
-        <v>2.330706</v>
+        <v>2.574467</v>
       </c>
       <c r="I11">
-        <v>0.1538944668455572</v>
+        <v>0.2277891858164222</v>
       </c>
       <c r="J11">
-        <v>0.1538944668455572</v>
+        <v>0.2277891858164221</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7039083333333332</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N11">
-        <v>2.111725</v>
+        <v>0.552325</v>
       </c>
       <c r="O11">
-        <v>0.4637607859836402</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P11">
-        <v>0.4637607859836402</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q11">
-        <v>0.5468677919833334</v>
+        <v>0.1579936095305556</v>
       </c>
       <c r="R11">
-        <v>4.92181012785</v>
+        <v>1.421942485775</v>
       </c>
       <c r="S11">
-        <v>0.07137021890282885</v>
+        <v>0.09411188527679606</v>
       </c>
       <c r="T11">
-        <v>0.07137021890282885</v>
+        <v>0.09411188527679605</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.154502666666666</v>
+        <v>0.8581556666666668</v>
       </c>
       <c r="H12">
-        <v>3.463508</v>
+        <v>2.574467</v>
       </c>
       <c r="I12">
-        <v>0.2286923863736232</v>
+        <v>0.2277891858164222</v>
       </c>
       <c r="J12">
-        <v>0.2286923863736232</v>
+        <v>0.2277891858164221</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.003643333333333333</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N12">
-        <v>0.01093</v>
+        <v>0.271372</v>
       </c>
       <c r="O12">
-        <v>0.002400362448141301</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P12">
-        <v>0.002400362448141301</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q12">
-        <v>0.004206238048888888</v>
+        <v>0.07762647319155556</v>
       </c>
       <c r="R12">
-        <v>0.03785614244</v>
+        <v>0.6986382587240001</v>
       </c>
       <c r="S12">
-        <v>0.0005489446164270665</v>
+        <v>0.04623967868797303</v>
       </c>
       <c r="T12">
-        <v>0.0005489446164270665</v>
+        <v>0.04623967868797303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.154502666666666</v>
+        <v>0.8581556666666668</v>
       </c>
       <c r="H13">
-        <v>3.463508</v>
+        <v>2.574467</v>
       </c>
       <c r="I13">
-        <v>0.2286923863736232</v>
+        <v>0.2277891858164222</v>
       </c>
       <c r="J13">
-        <v>0.2286923863736232</v>
+        <v>0.2277891858164221</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,95 +1243,95 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2626486666666666</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N13">
-        <v>0.7879459999999999</v>
+        <v>0.486052</v>
       </c>
       <c r="O13">
-        <v>0.1730426339947982</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P13">
-        <v>0.1730426339947983</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q13">
-        <v>0.303228586063111</v>
+        <v>0.1390360926982222</v>
       </c>
       <c r="R13">
-        <v>2.729057274568</v>
+        <v>1.251324834284</v>
       </c>
       <c r="S13">
-        <v>0.03957353291264787</v>
+        <v>0.08281948139692623</v>
       </c>
       <c r="T13">
-        <v>0.03957353291264788</v>
+        <v>0.08281948139692623</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.154502666666666</v>
+        <v>0.191914</v>
       </c>
       <c r="H14">
-        <v>3.463508</v>
+        <v>0.575742</v>
       </c>
       <c r="I14">
-        <v>0.2286923863736232</v>
+        <v>0.05094172946101796</v>
       </c>
       <c r="J14">
-        <v>0.2286923863736232</v>
+        <v>0.05094172946101794</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.5169776666666667</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N14">
-        <v>1.550933</v>
+        <v>0.027103</v>
       </c>
       <c r="O14">
-        <v>0.3406039645730221</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P14">
-        <v>0.3406039645730221</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q14">
-        <v>0.5968520947737777</v>
+        <v>0.001733815047333333</v>
       </c>
       <c r="R14">
-        <v>5.371668852963999</v>
+        <v>0.015604335426</v>
       </c>
       <c r="S14">
-        <v>0.07789353346652146</v>
+        <v>0.001032779764388257</v>
       </c>
       <c r="T14">
-        <v>0.07789353346652146</v>
+        <v>0.001032779764388256</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.154502666666666</v>
+        <v>0.191914</v>
       </c>
       <c r="H15">
-        <v>3.463508</v>
+        <v>0.575742</v>
       </c>
       <c r="I15">
-        <v>0.2286923863736232</v>
+        <v>0.05094172946101796</v>
       </c>
       <c r="J15">
-        <v>0.2286923863736232</v>
+        <v>0.05094172946101794</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.03064833333333333</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N15">
-        <v>0.091945</v>
+        <v>0.552325</v>
       </c>
       <c r="O15">
-        <v>0.02019225300039816</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P15">
-        <v>0.02019225300039816</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q15">
-        <v>0.03538358256222222</v>
+        <v>0.03533296668333333</v>
       </c>
       <c r="R15">
-        <v>0.31845224306</v>
+        <v>0.31799670015</v>
       </c>
       <c r="S15">
-        <v>0.004617814524921008</v>
+        <v>0.02104675066840364</v>
       </c>
       <c r="T15">
-        <v>0.004617814524921009</v>
+        <v>0.02104675066840363</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.154502666666666</v>
+        <v>0.191914</v>
       </c>
       <c r="H16">
-        <v>3.463508</v>
+        <v>0.575742</v>
       </c>
       <c r="I16">
-        <v>0.2286923863736232</v>
+        <v>0.05094172946101796</v>
       </c>
       <c r="J16">
-        <v>0.2286923863736232</v>
+        <v>0.05094172946101794</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.7039083333333332</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N16">
-        <v>2.111725</v>
+        <v>0.271372</v>
       </c>
       <c r="O16">
-        <v>0.4637607859836402</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P16">
-        <v>0.4637607859836402</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q16">
-        <v>0.812664047922222</v>
+        <v>0.01736002866933333</v>
       </c>
       <c r="R16">
-        <v>7.313976431299999</v>
+        <v>0.156240258024</v>
       </c>
       <c r="S16">
-        <v>0.1060585608531058</v>
+        <v>0.01034082980561451</v>
       </c>
       <c r="T16">
-        <v>0.1060585608531058</v>
+        <v>0.0103408298056145</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3891236666666667</v>
+        <v>0.191914</v>
       </c>
       <c r="H17">
-        <v>1.167371</v>
+        <v>0.575742</v>
       </c>
       <c r="I17">
-        <v>0.07708048018753327</v>
+        <v>0.05094172946101796</v>
       </c>
       <c r="J17">
-        <v>0.07708048018753327</v>
+        <v>0.05094172946101794</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.003643333333333333</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N17">
-        <v>0.01093</v>
+        <v>0.486052</v>
       </c>
       <c r="O17">
-        <v>0.002400362448141301</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P17">
-        <v>0.002400362448141301</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q17">
-        <v>0.001417707225555556</v>
+        <v>0.03109339450933333</v>
       </c>
       <c r="R17">
-        <v>0.01275936503</v>
+        <v>0.279840550584</v>
       </c>
       <c r="S17">
-        <v>0.0001850210901268544</v>
+        <v>0.01852136922261155</v>
       </c>
       <c r="T17">
-        <v>0.0001850210901268544</v>
+        <v>0.01852136922261155</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,57 +1529,57 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3891236666666667</v>
+        <v>0.5400426666666666</v>
       </c>
       <c r="H18">
-        <v>1.167371</v>
+        <v>1.620128</v>
       </c>
       <c r="I18">
-        <v>0.07708048018753327</v>
+        <v>0.1433491429637235</v>
       </c>
       <c r="J18">
-        <v>0.07708048018753327</v>
+        <v>0.1433491429637235</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.2626486666666666</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N18">
-        <v>0.7879459999999999</v>
+        <v>0.027103</v>
       </c>
       <c r="O18">
-        <v>0.1730426339947982</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P18">
-        <v>0.1730426339947983</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q18">
-        <v>0.1022028122184444</v>
+        <v>0.004878925464888888</v>
       </c>
       <c r="R18">
-        <v>0.919825309966</v>
+        <v>0.04391032918399999</v>
       </c>
       <c r="S18">
-        <v>0.01333820932123462</v>
+        <v>0.002906224340275361</v>
       </c>
       <c r="T18">
-        <v>0.01333820932123462</v>
+        <v>0.002906224340275361</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,22 +1591,22 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3891236666666667</v>
+        <v>0.5400426666666666</v>
       </c>
       <c r="H19">
-        <v>1.167371</v>
+        <v>1.620128</v>
       </c>
       <c r="I19">
-        <v>0.07708048018753327</v>
+        <v>0.1433491429637235</v>
       </c>
       <c r="J19">
-        <v>0.07708048018753327</v>
+        <v>0.1433491429637235</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5169776666666667</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N19">
-        <v>1.550933</v>
+        <v>0.552325</v>
       </c>
       <c r="O19">
-        <v>0.3406039645730221</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P19">
-        <v>0.3406039645730221</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q19">
-        <v>0.2011682452381111</v>
+        <v>0.09942635528888887</v>
       </c>
       <c r="R19">
-        <v>1.810514207143</v>
+        <v>0.8948371975999998</v>
       </c>
       <c r="S19">
-        <v>0.02625391714306612</v>
+        <v>0.05922519126084157</v>
       </c>
       <c r="T19">
-        <v>0.02625391714306612</v>
+        <v>0.05922519126084157</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.3891236666666667</v>
+        <v>0.5400426666666666</v>
       </c>
       <c r="H20">
-        <v>1.167371</v>
+        <v>1.620128</v>
       </c>
       <c r="I20">
-        <v>0.07708048018753327</v>
+        <v>0.1433491429637235</v>
       </c>
       <c r="J20">
-        <v>0.07708048018753327</v>
+        <v>0.1433491429637235</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,33 +1677,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.03064833333333333</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N20">
-        <v>0.091945</v>
+        <v>0.271372</v>
       </c>
       <c r="O20">
-        <v>0.02019225300039816</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P20">
-        <v>0.02019225300039816</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q20">
-        <v>0.01192599184388889</v>
+        <v>0.04885081951288888</v>
       </c>
       <c r="R20">
-        <v>0.107333926595</v>
+        <v>0.4396573756159999</v>
       </c>
       <c r="S20">
-        <v>0.001556428557338849</v>
+        <v>0.02909891567978472</v>
       </c>
       <c r="T20">
-        <v>0.00155642855733885</v>
+        <v>0.02909891567978472</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.3891236666666667</v>
+        <v>0.5400426666666666</v>
       </c>
       <c r="H21">
-        <v>1.167371</v>
+        <v>1.620128</v>
       </c>
       <c r="I21">
-        <v>0.07708048018753327</v>
+        <v>0.1433491429637235</v>
       </c>
       <c r="J21">
-        <v>0.07708048018753327</v>
+        <v>0.1433491429637235</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.7039083333333332</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N21">
-        <v>2.111725</v>
+        <v>0.486052</v>
       </c>
       <c r="O21">
-        <v>0.4637607859836402</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P21">
-        <v>0.4637607859836402</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q21">
-        <v>0.2739073916638889</v>
+        <v>0.08749627273955553</v>
       </c>
       <c r="R21">
-        <v>2.465166524975</v>
+        <v>0.7874664546559998</v>
       </c>
       <c r="S21">
-        <v>0.03574690407576683</v>
+        <v>0.05211881168282182</v>
       </c>
       <c r="T21">
-        <v>0.03574690407576684</v>
+        <v>0.05211881168282183</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,25 +1774,25 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3709356666666666</v>
+        <v>0.624313</v>
       </c>
       <c r="H22">
-        <v>1.112807</v>
+        <v>1.872939</v>
       </c>
       <c r="I22">
-        <v>0.07347766726777376</v>
+        <v>0.1657178941869614</v>
       </c>
       <c r="J22">
-        <v>0.07347766726777376</v>
+        <v>0.1657178941869613</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,33 +1801,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.003643333333333333</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N22">
-        <v>0.01093</v>
+        <v>0.027103</v>
       </c>
       <c r="O22">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P22">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q22">
-        <v>0.001351442278888889</v>
+        <v>0.005640251746333333</v>
       </c>
       <c r="R22">
-        <v>0.01216298051</v>
+        <v>0.05076226571699999</v>
       </c>
       <c r="S22">
-        <v>0.0001763730332865853</v>
+        <v>0.003359722756258145</v>
       </c>
       <c r="T22">
-        <v>0.0001763730332865853</v>
+        <v>0.003359722756258145</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3709356666666666</v>
+        <v>0.624313</v>
       </c>
       <c r="H23">
-        <v>1.112807</v>
+        <v>1.872939</v>
       </c>
       <c r="I23">
-        <v>0.07347766726777376</v>
+        <v>0.1657178941869614</v>
       </c>
       <c r="J23">
-        <v>0.07347766726777376</v>
+        <v>0.1657178941869613</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2626486666666666</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N23">
-        <v>0.7879459999999999</v>
+        <v>0.552325</v>
       </c>
       <c r="O23">
-        <v>0.1730426339947982</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P23">
-        <v>0.1730426339947983</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q23">
-        <v>0.09742575826911108</v>
+        <v>0.1149412259083333</v>
       </c>
       <c r="R23">
-        <v>0.8768318244219998</v>
+        <v>1.034471033175</v>
       </c>
       <c r="S23">
-        <v>0.01271476908380894</v>
+        <v>0.0684669177342095</v>
       </c>
       <c r="T23">
-        <v>0.01271476908380894</v>
+        <v>0.06846691773420949</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3709356666666666</v>
+        <v>0.624313</v>
       </c>
       <c r="H24">
-        <v>1.112807</v>
+        <v>1.872939</v>
       </c>
       <c r="I24">
-        <v>0.07347766726777376</v>
+        <v>0.1657178941869614</v>
       </c>
       <c r="J24">
-        <v>0.07347766726777376</v>
+        <v>0.1657178941869613</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.5169776666666667</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N24">
-        <v>1.550933</v>
+        <v>0.271372</v>
       </c>
       <c r="O24">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P24">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q24">
-        <v>0.1917654554367778</v>
+        <v>0.05647368914533334</v>
       </c>
       <c r="R24">
-        <v>1.725889098931</v>
+        <v>0.5082632023079999</v>
       </c>
       <c r="S24">
-        <v>0.02502678477898112</v>
+        <v>0.03363962232266854</v>
       </c>
       <c r="T24">
-        <v>0.02502678477898112</v>
+        <v>0.03363962232266854</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,427 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.624313</v>
+      </c>
+      <c r="H25">
+        <v>1.872939</v>
+      </c>
+      <c r="I25">
+        <v>0.1657178941869614</v>
+      </c>
+      <c r="J25">
+        <v>0.1657178941869613</v>
+      </c>
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="F25">
+      <c r="L25">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G25">
-        <v>0.3709356666666666</v>
-      </c>
-      <c r="H25">
-        <v>1.112807</v>
-      </c>
-      <c r="I25">
-        <v>0.07347766726777376</v>
-      </c>
-      <c r="J25">
-        <v>0.07347766726777376</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M25">
-        <v>0.03064833333333333</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N25">
-        <v>0.091945</v>
+        <v>0.486052</v>
       </c>
       <c r="O25">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P25">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q25">
-        <v>0.01136855995722222</v>
+        <v>0.1011495274253333</v>
       </c>
       <c r="R25">
-        <v>0.102317039615</v>
+        <v>0.910345746828</v>
       </c>
       <c r="S25">
-        <v>0.001483679647349962</v>
+        <v>0.06025163137382518</v>
       </c>
       <c r="T25">
-        <v>0.001483679647349962</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.3709356666666666</v>
-      </c>
-      <c r="H26">
-        <v>1.112807</v>
-      </c>
-      <c r="I26">
-        <v>0.07347766726777376</v>
-      </c>
-      <c r="J26">
-        <v>0.07347766726777376</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.7039083333333332</v>
-      </c>
-      <c r="N26">
-        <v>2.111725</v>
-      </c>
-      <c r="O26">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="P26">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="Q26">
-        <v>0.2611047068972221</v>
-      </c>
-      <c r="R26">
-        <v>2.349942362075</v>
-      </c>
-      <c r="S26">
-        <v>0.03407606072434715</v>
-      </c>
-      <c r="T26">
-        <v>0.03407606072434715</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1.619522666666667</v>
-      </c>
-      <c r="H27">
-        <v>4.858568</v>
-      </c>
-      <c r="I27">
-        <v>0.3208069709319343</v>
-      </c>
-      <c r="J27">
-        <v>0.3208069709319343</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M27">
-        <v>0.003643333333333333</v>
-      </c>
-      <c r="N27">
-        <v>0.01093</v>
-      </c>
-      <c r="O27">
-        <v>0.002400362448141301</v>
-      </c>
-      <c r="P27">
-        <v>0.002400362448141301</v>
-      </c>
-      <c r="Q27">
-        <v>0.005900460915555556</v>
-      </c>
-      <c r="R27">
-        <v>0.05310414824</v>
-      </c>
-      <c r="S27">
-        <v>0.000770053006126973</v>
-      </c>
-      <c r="T27">
-        <v>0.000770053006126973</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1.619522666666667</v>
-      </c>
-      <c r="H28">
-        <v>4.858568</v>
-      </c>
-      <c r="I28">
-        <v>0.3208069709319343</v>
-      </c>
-      <c r="J28">
-        <v>0.3208069709319343</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.2626486666666666</v>
-      </c>
-      <c r="N28">
-        <v>0.7879459999999999</v>
-      </c>
-      <c r="O28">
-        <v>0.1730426339947982</v>
-      </c>
-      <c r="P28">
-        <v>0.1730426339947983</v>
-      </c>
-      <c r="Q28">
-        <v>0.4253654690364444</v>
-      </c>
-      <c r="R28">
-        <v>3.828289221328</v>
-      </c>
-      <c r="S28">
-        <v>0.05551328325395459</v>
-      </c>
-      <c r="T28">
-        <v>0.0555132832539546</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1.619522666666667</v>
-      </c>
-      <c r="H29">
-        <v>4.858568</v>
-      </c>
-      <c r="I29">
-        <v>0.3208069709319343</v>
-      </c>
-      <c r="J29">
-        <v>0.3208069709319343</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.5169776666666667</v>
-      </c>
-      <c r="N29">
-        <v>1.550933</v>
-      </c>
-      <c r="O29">
-        <v>0.3406039645730221</v>
-      </c>
-      <c r="P29">
-        <v>0.3406039645730221</v>
-      </c>
-      <c r="Q29">
-        <v>0.8372570493271111</v>
-      </c>
-      <c r="R29">
-        <v>7.535313443943999</v>
-      </c>
-      <c r="S29">
-        <v>0.1092681261620791</v>
-      </c>
-      <c r="T29">
-        <v>0.1092681261620791</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1.619522666666667</v>
-      </c>
-      <c r="H30">
-        <v>4.858568</v>
-      </c>
-      <c r="I30">
-        <v>0.3208069709319343</v>
-      </c>
-      <c r="J30">
-        <v>0.3208069709319343</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.03064833333333333</v>
-      </c>
-      <c r="N30">
-        <v>0.091945</v>
-      </c>
-      <c r="O30">
-        <v>0.02019225300039816</v>
-      </c>
-      <c r="P30">
-        <v>0.02019225300039816</v>
-      </c>
-      <c r="Q30">
-        <v>0.04963567052888889</v>
-      </c>
-      <c r="R30">
-        <v>0.44672103476</v>
-      </c>
-      <c r="S30">
-        <v>0.006477815521348996</v>
-      </c>
-      <c r="T30">
-        <v>0.006477815521348997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1.619522666666667</v>
-      </c>
-      <c r="H31">
-        <v>4.858568</v>
-      </c>
-      <c r="I31">
-        <v>0.3208069709319343</v>
-      </c>
-      <c r="J31">
-        <v>0.3208069709319343</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.7039083333333332</v>
-      </c>
-      <c r="N31">
-        <v>2.111725</v>
-      </c>
-      <c r="O31">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="P31">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="Q31">
-        <v>1.139995501088889</v>
-      </c>
-      <c r="R31">
-        <v>10.2599595098</v>
-      </c>
-      <c r="S31">
-        <v>0.1487776929884247</v>
-      </c>
-      <c r="T31">
-        <v>0.1487776929884247</v>
+        <v>0.06025163137382518</v>
       </c>
     </row>
   </sheetData>
